--- a/sample_output_dec_14.xlsx
+++ b/sample_output_dec_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LinBin/Documents/repos/ID_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4097EF-BA7B-B046-B9B9-C37522F768C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB85E22-4FD7-B546-87DC-91332FBCC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
